--- a/data/pca/factorExposure/factorExposure_2015-02-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02064856733257511</v>
+        <v>0.01222972404015614</v>
       </c>
       <c r="C2">
-        <v>-0.03808160952761712</v>
+        <v>-0.05372348212626671</v>
       </c>
       <c r="D2">
-        <v>0.113051068426186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0741090610513495</v>
+      </c>
+      <c r="E2">
+        <v>-0.08022014118400082</v>
+      </c>
+      <c r="F2">
+        <v>-0.04926951297635959</v>
+      </c>
+      <c r="G2">
+        <v>0.1481127648301198</v>
+      </c>
+      <c r="H2">
+        <v>0.008398085170863087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04715175996455452</v>
+        <v>0.02059319150886932</v>
       </c>
       <c r="C4">
-        <v>-0.08355963638378079</v>
+        <v>-0.1184940317056033</v>
       </c>
       <c r="D4">
-        <v>0.07292886679550448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07380906357636174</v>
+      </c>
+      <c r="E4">
+        <v>-0.09128592620620833</v>
+      </c>
+      <c r="F4">
+        <v>-0.1049519664648394</v>
+      </c>
+      <c r="G4">
+        <v>-0.00773705414240287</v>
+      </c>
+      <c r="H4">
+        <v>0.06862730315209643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03031289993107678</v>
+        <v>0.03394547349493762</v>
       </c>
       <c r="C6">
-        <v>-0.02177008604980938</v>
+        <v>-0.0408237280938486</v>
       </c>
       <c r="D6">
-        <v>0.08312451133229627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06273954250095019</v>
+      </c>
+      <c r="E6">
+        <v>-0.1110940364367089</v>
+      </c>
+      <c r="F6">
+        <v>-0.05478965833088158</v>
+      </c>
+      <c r="G6">
+        <v>0.002060335904690558</v>
+      </c>
+      <c r="H6">
+        <v>-0.03378282607217509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.001101745157607243</v>
+        <v>0.006613475448231074</v>
       </c>
       <c r="C7">
-        <v>-0.03271464688853164</v>
+        <v>-0.04609737222428142</v>
       </c>
       <c r="D7">
-        <v>0.07046542846308113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04224855436349478</v>
+      </c>
+      <c r="E7">
+        <v>-0.09398598683298451</v>
+      </c>
+      <c r="F7">
+        <v>-0.01880429598238903</v>
+      </c>
+      <c r="G7">
+        <v>-0.01269097997752963</v>
+      </c>
+      <c r="H7">
+        <v>0.02265224685739752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003457496378131728</v>
+        <v>-0.004851546068715003</v>
       </c>
       <c r="C8">
-        <v>-0.02990905607431119</v>
+        <v>-0.04139896873905755</v>
       </c>
       <c r="D8">
-        <v>0.06604311839151993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03527519762966789</v>
+      </c>
+      <c r="E8">
+        <v>-0.06815146146957773</v>
+      </c>
+      <c r="F8">
+        <v>-0.05871726977220386</v>
+      </c>
+      <c r="G8">
+        <v>0.05048708497960262</v>
+      </c>
+      <c r="H8">
+        <v>0.05865377088375765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03361520886158737</v>
+        <v>0.01369320729654882</v>
       </c>
       <c r="C9">
-        <v>-0.07368856454186735</v>
+        <v>-0.09715403964869079</v>
       </c>
       <c r="D9">
-        <v>0.08063377600304049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06669908719360278</v>
+      </c>
+      <c r="E9">
+        <v>-0.07868037992246071</v>
+      </c>
+      <c r="F9">
+        <v>-0.07553899245806243</v>
+      </c>
+      <c r="G9">
+        <v>-0.006372589038803725</v>
+      </c>
+      <c r="H9">
+        <v>0.01521471851602056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2015783336501283</v>
+        <v>0.2436994707491286</v>
       </c>
       <c r="C10">
-        <v>0.1481620502427889</v>
+        <v>0.08673393224723464</v>
       </c>
       <c r="D10">
-        <v>-0.04778536848889803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008395962083664683</v>
+      </c>
+      <c r="E10">
+        <v>0.02673606092018179</v>
+      </c>
+      <c r="F10">
+        <v>-0.03298335576027567</v>
+      </c>
+      <c r="G10">
+        <v>-0.0136315781909451</v>
+      </c>
+      <c r="H10">
+        <v>0.002074771852436836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0108007084292064</v>
+        <v>0.00904926479156049</v>
       </c>
       <c r="C11">
-        <v>-0.04132106301275944</v>
+        <v>-0.06104710081753918</v>
       </c>
       <c r="D11">
-        <v>0.0415077918746024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02331592802221271</v>
+      </c>
+      <c r="E11">
+        <v>-0.05605998720600341</v>
+      </c>
+      <c r="F11">
+        <v>-0.003313986024566452</v>
+      </c>
+      <c r="G11">
+        <v>-0.01160397168214854</v>
+      </c>
+      <c r="H11">
+        <v>0.0064497392307996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009925969538162525</v>
+        <v>0.009663943230689035</v>
       </c>
       <c r="C12">
-        <v>-0.0427470563865047</v>
+        <v>-0.0513765232429403</v>
       </c>
       <c r="D12">
-        <v>0.04955891427024662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0302698275505797</v>
+      </c>
+      <c r="E12">
+        <v>-0.04776822582439793</v>
+      </c>
+      <c r="F12">
+        <v>-0.0008183442201610248</v>
+      </c>
+      <c r="G12">
+        <v>-0.001175442738269386</v>
+      </c>
+      <c r="H12">
+        <v>-0.02441497261016787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0141625584288936</v>
+        <v>0.003869081286703023</v>
       </c>
       <c r="C13">
-        <v>-0.03569289498481007</v>
+        <v>-0.06981746509246357</v>
       </c>
       <c r="D13">
-        <v>0.1102385523337201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1061980831679879</v>
+      </c>
+      <c r="E13">
+        <v>-0.1124024969774772</v>
+      </c>
+      <c r="F13">
+        <v>-0.03780787536084934</v>
+      </c>
+      <c r="G13">
+        <v>0.06000524859467102</v>
+      </c>
+      <c r="H13">
+        <v>-0.06936715309999153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.007816449141603832</v>
+        <v>0.003058768991757684</v>
       </c>
       <c r="C14">
-        <v>-0.01862559554123262</v>
+        <v>-0.03679737250592883</v>
       </c>
       <c r="D14">
-        <v>0.05755279938989397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04109584388412802</v>
+      </c>
+      <c r="E14">
+        <v>-0.1091589925637543</v>
+      </c>
+      <c r="F14">
+        <v>-0.04243222015176352</v>
+      </c>
+      <c r="G14">
+        <v>0.02109016326425272</v>
+      </c>
+      <c r="H14">
+        <v>-0.03643455891607115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002755799330144162</v>
+        <v>-0.005002955076698997</v>
       </c>
       <c r="C15">
-        <v>-0.01248542242609939</v>
+        <v>-0.03354128883064023</v>
       </c>
       <c r="D15">
-        <v>0.05001999512955924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04434710468812492</v>
+      </c>
+      <c r="E15">
+        <v>-0.06462517198932806</v>
+      </c>
+      <c r="F15">
+        <v>-0.01703899178545572</v>
+      </c>
+      <c r="G15">
+        <v>0.01711597744386605</v>
+      </c>
+      <c r="H15">
+        <v>0.01045635972343577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01033390678882192</v>
+        <v>0.008689783829951206</v>
       </c>
       <c r="C16">
-        <v>-0.04077472675864328</v>
+        <v>-0.05397558229110411</v>
       </c>
       <c r="D16">
-        <v>0.04524165775960134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02612138548656806</v>
+      </c>
+      <c r="E16">
+        <v>-0.05163236509488087</v>
+      </c>
+      <c r="F16">
+        <v>-0.0006770752195800436</v>
+      </c>
+      <c r="G16">
+        <v>-0.02271580788992591</v>
+      </c>
+      <c r="H16">
+        <v>-0.008307109073940075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00312518195298803</v>
+        <v>-0.0004871893255145153</v>
       </c>
       <c r="C19">
-        <v>-0.02044353127019049</v>
+        <v>-0.01607610352801083</v>
       </c>
       <c r="D19">
-        <v>0.04450162427404639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02129227111318664</v>
+      </c>
+      <c r="E19">
+        <v>-0.008166549137080188</v>
+      </c>
+      <c r="F19">
+        <v>-0.005319986130457138</v>
+      </c>
+      <c r="G19">
+        <v>0.02950934481766611</v>
+      </c>
+      <c r="H19">
+        <v>-0.001460183973123426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-2.173089432138963e-05</v>
+        <v>0.003995356462984872</v>
       </c>
       <c r="C20">
-        <v>-0.03203013170050638</v>
+        <v>-0.04976968834931621</v>
       </c>
       <c r="D20">
-        <v>0.05188245762121576</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05112060628351826</v>
+      </c>
+      <c r="E20">
+        <v>-0.07153533528575921</v>
+      </c>
+      <c r="F20">
+        <v>-0.02876418632752239</v>
+      </c>
+      <c r="G20">
+        <v>-0.02556398320999535</v>
+      </c>
+      <c r="H20">
+        <v>0.01042083280524835</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008234164761697122</v>
+        <v>0.004625171410776895</v>
       </c>
       <c r="C21">
-        <v>-0.03326698797193645</v>
+        <v>-0.05092015492789055</v>
       </c>
       <c r="D21">
-        <v>0.08014803506637989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07279709964011515</v>
+      </c>
+      <c r="E21">
+        <v>-0.08851671354877046</v>
+      </c>
+      <c r="F21">
+        <v>-0.1038030213745795</v>
+      </c>
+      <c r="G21">
+        <v>0.09027182178637459</v>
+      </c>
+      <c r="H21">
+        <v>-0.06939907530568543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004794709815738754</v>
+        <v>-0.009733764451812033</v>
       </c>
       <c r="C22">
-        <v>-0.05676739596699684</v>
+        <v>-0.08598328012253463</v>
       </c>
       <c r="D22">
-        <v>0.1935917771632436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1830310691632288</v>
+      </c>
+      <c r="E22">
+        <v>-0.1462665839476428</v>
+      </c>
+      <c r="F22">
+        <v>-0.08827308232095475</v>
+      </c>
+      <c r="G22">
+        <v>0.1805946845882204</v>
+      </c>
+      <c r="H22">
+        <v>0.2272580167516866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004982093349474403</v>
+        <v>-0.006651754256439139</v>
       </c>
       <c r="C23">
-        <v>-0.05728491531891643</v>
+        <v>-0.08807712402005521</v>
       </c>
       <c r="D23">
-        <v>0.1927328163023672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1867031935774324</v>
+      </c>
+      <c r="E23">
+        <v>-0.1438139462033879</v>
+      </c>
+      <c r="F23">
+        <v>-0.09060728378310638</v>
+      </c>
+      <c r="G23">
+        <v>0.1765421975263215</v>
+      </c>
+      <c r="H23">
+        <v>0.2179099240224098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0165692170810784</v>
+        <v>0.01002597506342972</v>
       </c>
       <c r="C24">
-        <v>-0.06112530566649991</v>
+        <v>-0.07081753960678903</v>
       </c>
       <c r="D24">
-        <v>0.05666270167448828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02213898491103721</v>
+      </c>
+      <c r="E24">
+        <v>-0.06209889301998854</v>
+      </c>
+      <c r="F24">
+        <v>-0.004799270409500267</v>
+      </c>
+      <c r="G24">
+        <v>-0.0008990321475271682</v>
+      </c>
+      <c r="H24">
+        <v>0.0009477854437352294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01632886335626376</v>
+        <v>0.01380638431118857</v>
       </c>
       <c r="C25">
-        <v>-0.05270231517042403</v>
+        <v>-0.06512827970595197</v>
       </c>
       <c r="D25">
-        <v>0.04360624706279473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02731738153469044</v>
+      </c>
+      <c r="E25">
+        <v>-0.04502879277825238</v>
+      </c>
+      <c r="F25">
+        <v>-0.006786200699636524</v>
+      </c>
+      <c r="G25">
+        <v>-0.01392763361298455</v>
+      </c>
+      <c r="H25">
+        <v>-0.0002934263077403676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007350005440956321</v>
+        <v>0.01756620177929812</v>
       </c>
       <c r="C26">
-        <v>-0.01999711818332255</v>
+        <v>-0.03555427925189868</v>
       </c>
       <c r="D26">
-        <v>0.04716757731015794</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02306507432309874</v>
+      </c>
+      <c r="E26">
+        <v>-0.07889850927995226</v>
+      </c>
+      <c r="F26">
+        <v>-0.05523266387005419</v>
+      </c>
+      <c r="G26">
+        <v>0.01912945440416175</v>
+      </c>
+      <c r="H26">
+        <v>0.004840988294912868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2824423215573322</v>
+        <v>0.3129955656783022</v>
       </c>
       <c r="C28">
-        <v>0.1643456309823319</v>
+        <v>0.09337281399255778</v>
       </c>
       <c r="D28">
-        <v>-0.01297621138128588</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.004190865111528366</v>
+      </c>
+      <c r="E28">
+        <v>0.0546441137879598</v>
+      </c>
+      <c r="F28">
+        <v>-0.0543296135807211</v>
+      </c>
+      <c r="G28">
+        <v>0.04447627356535323</v>
+      </c>
+      <c r="H28">
+        <v>0.06316212258131264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001465526746880022</v>
+        <v>0.002594380065769274</v>
       </c>
       <c r="C29">
-        <v>-0.02190387783062484</v>
+        <v>-0.04279128323236898</v>
       </c>
       <c r="D29">
-        <v>0.0605729193241578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04680403837634305</v>
+      </c>
+      <c r="E29">
+        <v>-0.1214066519452851</v>
+      </c>
+      <c r="F29">
+        <v>-0.04883286360698177</v>
+      </c>
+      <c r="G29">
+        <v>0.01130586324463418</v>
+      </c>
+      <c r="H29">
+        <v>-0.05087947192792856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02530363792699788</v>
+        <v>0.01629829936517019</v>
       </c>
       <c r="C30">
-        <v>-0.07724088453338893</v>
+        <v>-0.1033647255963532</v>
       </c>
       <c r="D30">
-        <v>0.1328648597383283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08039851086750753</v>
+      </c>
+      <c r="E30">
+        <v>-0.1352057423721069</v>
+      </c>
+      <c r="F30">
+        <v>-0.03277111314564691</v>
+      </c>
+      <c r="G30">
+        <v>-0.006218210106893484</v>
+      </c>
+      <c r="H30">
+        <v>0.02157392734650567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03134737393898761</v>
+        <v>0.01045948648775358</v>
       </c>
       <c r="C31">
-        <v>-0.08796475349166374</v>
+        <v>-0.09709373536110071</v>
       </c>
       <c r="D31">
-        <v>0.04162444087297845</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01418390219657536</v>
+      </c>
+      <c r="E31">
+        <v>-0.03083085055208432</v>
+      </c>
+      <c r="F31">
+        <v>-0.01817683613799638</v>
+      </c>
+      <c r="G31">
+        <v>0.018749216350027</v>
+      </c>
+      <c r="H31">
+        <v>0.0140773700096391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0174908014835119</v>
+        <v>0.01269319739999991</v>
       </c>
       <c r="C32">
-        <v>-0.0429722385320976</v>
+        <v>-0.05529174128542168</v>
       </c>
       <c r="D32">
-        <v>0.07780304018950884</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07456781652891355</v>
+      </c>
+      <c r="E32">
+        <v>-0.03447919731265151</v>
+      </c>
+      <c r="F32">
+        <v>-0.06672377899403409</v>
+      </c>
+      <c r="G32">
+        <v>0.0472294337204013</v>
+      </c>
+      <c r="H32">
+        <v>-0.01083803491624265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006423468934721749</v>
+        <v>0.006953377795322829</v>
       </c>
       <c r="C33">
-        <v>-0.04500417984372355</v>
+        <v>-0.06874882322655743</v>
       </c>
       <c r="D33">
-        <v>0.08132747374896751</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06899515882249235</v>
+      </c>
+      <c r="E33">
+        <v>-0.09643727629396359</v>
+      </c>
+      <c r="F33">
+        <v>-0.04128107016327595</v>
+      </c>
+      <c r="G33">
+        <v>0.005508344779543605</v>
+      </c>
+      <c r="H33">
+        <v>-0.004918172838427204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01051006186222115</v>
+        <v>0.008073395245315659</v>
       </c>
       <c r="C34">
-        <v>-0.06065528737259625</v>
+        <v>-0.06230445103718966</v>
       </c>
       <c r="D34">
-        <v>0.05917941548238663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01343059652876927</v>
+      </c>
+      <c r="E34">
+        <v>-0.04690710450169912</v>
+      </c>
+      <c r="F34">
+        <v>0.02615224789634215</v>
+      </c>
+      <c r="G34">
+        <v>0.006020098546709125</v>
+      </c>
+      <c r="H34">
+        <v>-0.009457716449209385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0007380570665483059</v>
+        <v>0.004212803851568409</v>
       </c>
       <c r="C35">
-        <v>-0.0003587380637849326</v>
+        <v>-0.01770142996952569</v>
       </c>
       <c r="D35">
-        <v>0.003880087535594067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02355940167098738</v>
+      </c>
+      <c r="E35">
+        <v>-0.0353922077835983</v>
+      </c>
+      <c r="F35">
+        <v>-0.02878192723386126</v>
+      </c>
+      <c r="G35">
+        <v>-0.004367709958343317</v>
+      </c>
+      <c r="H35">
+        <v>-0.0170643911238483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008645528553375473</v>
+        <v>0.0119449519352733</v>
       </c>
       <c r="C36">
-        <v>-0.01404886672739883</v>
+        <v>-0.02854048892440561</v>
       </c>
       <c r="D36">
-        <v>0.04161345841498847</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03282180601569124</v>
+      </c>
+      <c r="E36">
+        <v>-0.0683421305509575</v>
+      </c>
+      <c r="F36">
+        <v>-0.05252003917103005</v>
+      </c>
+      <c r="G36">
+        <v>0.01139800163781934</v>
+      </c>
+      <c r="H36">
+        <v>6.406952650358957e-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.003736777700287917</v>
+        <v>0.007970119843803851</v>
       </c>
       <c r="C38">
-        <v>-0.009961111959780227</v>
+        <v>-0.03054703401567694</v>
       </c>
       <c r="D38">
-        <v>0.07194434123281597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06151185347554843</v>
+      </c>
+      <c r="E38">
+        <v>-0.07268702746829063</v>
+      </c>
+      <c r="F38">
+        <v>-0.0190792492996139</v>
+      </c>
+      <c r="G38">
+        <v>0.01414087551381</v>
+      </c>
+      <c r="H38">
+        <v>0.04775455614055162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01556240048476666</v>
+        <v>0.007830575862572402</v>
       </c>
       <c r="C39">
-        <v>-0.06444138823924686</v>
+        <v>-0.09388493789384225</v>
       </c>
       <c r="D39">
-        <v>0.09591626145595068</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04400459143660611</v>
+      </c>
+      <c r="E39">
+        <v>-0.1151773628948715</v>
+      </c>
+      <c r="F39">
+        <v>-0.001076781592245146</v>
+      </c>
+      <c r="G39">
+        <v>-0.01005918645431445</v>
+      </c>
+      <c r="H39">
+        <v>-0.02002737564915196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01607608493826631</v>
+        <v>0.01403054365582165</v>
       </c>
       <c r="C40">
-        <v>-0.02943480373336087</v>
+        <v>-0.04602490339408878</v>
       </c>
       <c r="D40">
-        <v>0.1061119317184003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.05965016132571398</v>
+      </c>
+      <c r="E40">
+        <v>-0.09226244011233735</v>
+      </c>
+      <c r="F40">
+        <v>0.02138767991539899</v>
+      </c>
+      <c r="G40">
+        <v>0.06771188323168589</v>
+      </c>
+      <c r="H40">
+        <v>-0.006066337343030389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009109961164596813</v>
+        <v>0.01728902962309527</v>
       </c>
       <c r="C41">
-        <v>-0.008615889599523478</v>
+        <v>-0.02705900054828908</v>
       </c>
       <c r="D41">
-        <v>0.01960024084316086</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02808663686687111</v>
+      </c>
+      <c r="E41">
+        <v>-0.02634878481436751</v>
+      </c>
+      <c r="F41">
+        <v>-0.01769566000019421</v>
+      </c>
+      <c r="G41">
+        <v>-0.003718393038684254</v>
+      </c>
+      <c r="H41">
+        <v>0.004904883187601843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.002898708259451596</v>
+        <v>0.008344515011613476</v>
       </c>
       <c r="C43">
-        <v>-0.006441774516991678</v>
+        <v>-0.02131465396909582</v>
       </c>
       <c r="D43">
-        <v>0.03507424832770362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03275924903357448</v>
+      </c>
+      <c r="E43">
+        <v>-0.042574441631692</v>
+      </c>
+      <c r="F43">
+        <v>-0.02292894566419441</v>
+      </c>
+      <c r="G43">
+        <v>-0.00685001202613704</v>
+      </c>
+      <c r="H43">
+        <v>0.01122970418987348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01745742889698877</v>
+        <v>0.008461756240336486</v>
       </c>
       <c r="C44">
-        <v>-0.03494146757619149</v>
+        <v>-0.05659335087346486</v>
       </c>
       <c r="D44">
-        <v>0.07998645870915136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06318827898990462</v>
+      </c>
+      <c r="E44">
+        <v>-0.1040990920078801</v>
+      </c>
+      <c r="F44">
+        <v>-0.04942992706620929</v>
+      </c>
+      <c r="G44">
+        <v>0.02230499709590704</v>
+      </c>
+      <c r="H44">
+        <v>0.02566864175318768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00326554984365934</v>
+        <v>7.158095214588436e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03131428048893987</v>
+        <v>-0.04426608758970162</v>
       </c>
       <c r="D46">
-        <v>0.06278687841370635</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03021060951121802</v>
+      </c>
+      <c r="E46">
+        <v>-0.09362361529367826</v>
+      </c>
+      <c r="F46">
+        <v>-0.04595646928283489</v>
+      </c>
+      <c r="G46">
+        <v>0.01814629789812309</v>
+      </c>
+      <c r="H46">
+        <v>-0.005238284456525122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06613534789402083</v>
+        <v>0.02998629656822307</v>
       </c>
       <c r="C47">
-        <v>-0.1143729927664937</v>
+        <v>-0.123982426742217</v>
       </c>
       <c r="D47">
-        <v>0.0481064598817537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01526486036597047</v>
+      </c>
+      <c r="E47">
+        <v>-0.003960492348687858</v>
+      </c>
+      <c r="F47">
+        <v>-0.003712235547563583</v>
+      </c>
+      <c r="G47">
+        <v>-0.005610761796761073</v>
+      </c>
+      <c r="H47">
+        <v>0.02311417444504543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.006863937424932101</v>
+        <v>0.01335570254817567</v>
       </c>
       <c r="C48">
-        <v>-0.01965841244901725</v>
+        <v>-0.03579946489951923</v>
       </c>
       <c r="D48">
-        <v>0.04518494789360071</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.03904720093566799</v>
+      </c>
+      <c r="E48">
+        <v>-0.07138317386161289</v>
+      </c>
+      <c r="F48">
+        <v>-0.06731181357716215</v>
+      </c>
+      <c r="G48">
+        <v>0.015571261937681</v>
+      </c>
+      <c r="H48">
+        <v>0.01163409440687131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002804950274512641</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006467658701067036</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.003591783318780791</v>
+      </c>
+      <c r="E49">
+        <v>-0.002188626528561105</v>
+      </c>
+      <c r="F49">
+        <v>0.00745951699963635</v>
+      </c>
+      <c r="G49">
+        <v>-0.009490248486118959</v>
+      </c>
+      <c r="H49">
+        <v>-0.01510691144375836</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03251848411030588</v>
+        <v>0.01476858460106974</v>
       </c>
       <c r="C50">
-        <v>-0.06018843858442992</v>
+        <v>-0.0775068957062106</v>
       </c>
       <c r="D50">
-        <v>0.06051670402492097</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03111541315561694</v>
+      </c>
+      <c r="E50">
+        <v>-0.04112307853846018</v>
+      </c>
+      <c r="F50">
+        <v>-0.01470845849744398</v>
+      </c>
+      <c r="G50">
+        <v>0.01014799433145532</v>
+      </c>
+      <c r="H50">
+        <v>0.02930889851130442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007481829356787031</v>
+        <v>-0.004280771694237313</v>
       </c>
       <c r="C51">
-        <v>-0.006693503832368646</v>
+        <v>-0.02004650361840815</v>
       </c>
       <c r="D51">
-        <v>0.05052062867083969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01697498545603323</v>
+      </c>
+      <c r="E51">
+        <v>-0.06420160430381994</v>
+      </c>
+      <c r="F51">
+        <v>-0.03995405731790722</v>
+      </c>
+      <c r="G51">
+        <v>0.03195279899232527</v>
+      </c>
+      <c r="H51">
+        <v>0.003378725060465707</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09914061836229957</v>
+        <v>0.05860240675194516</v>
       </c>
       <c r="C53">
-        <v>-0.1408946542726015</v>
+        <v>-0.1642556633757999</v>
       </c>
       <c r="D53">
-        <v>-0.007803983266977918</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01906508338125724</v>
+      </c>
+      <c r="E53">
+        <v>0.0357229560854582</v>
+      </c>
+      <c r="F53">
+        <v>-0.03160072539041512</v>
+      </c>
+      <c r="G53">
+        <v>0.006241009455322367</v>
+      </c>
+      <c r="H53">
+        <v>0.01057441814974542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00486989566348715</v>
+        <v>0.01021150611910827</v>
       </c>
       <c r="C54">
-        <v>-0.02600809150723561</v>
+        <v>-0.04340228767544886</v>
       </c>
       <c r="D54">
-        <v>0.08095495106682037</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.05801859031805153</v>
+      </c>
+      <c r="E54">
+        <v>-0.07048000031786084</v>
+      </c>
+      <c r="F54">
+        <v>-0.02478542246900946</v>
+      </c>
+      <c r="G54">
+        <v>0.01040279427724786</v>
+      </c>
+      <c r="H54">
+        <v>0.02293660753001696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08299659259457007</v>
+        <v>0.04088912592436904</v>
       </c>
       <c r="C55">
-        <v>-0.1160914503019437</v>
+        <v>-0.1280130098979122</v>
       </c>
       <c r="D55">
-        <v>-0.0009455851520385118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0500782741032955</v>
+      </c>
+      <c r="E55">
+        <v>0.02437823408140229</v>
+      </c>
+      <c r="F55">
+        <v>0.007859102155253405</v>
+      </c>
+      <c r="G55">
+        <v>0.02812513731317676</v>
+      </c>
+      <c r="H55">
+        <v>0.01509221385763864</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1219769166899992</v>
+        <v>0.06055505210548721</v>
       </c>
       <c r="C56">
-        <v>-0.1662318499313505</v>
+        <v>-0.1926516339151869</v>
       </c>
       <c r="D56">
-        <v>0.02062905530914904</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04080845714175702</v>
+      </c>
+      <c r="E56">
+        <v>0.05076666066755756</v>
+      </c>
+      <c r="F56">
+        <v>0.0141952608950506</v>
+      </c>
+      <c r="G56">
+        <v>0.07115941062455257</v>
+      </c>
+      <c r="H56">
+        <v>0.03954684514405329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01147987227391823</v>
+        <v>0.008828992146691857</v>
       </c>
       <c r="C58">
-        <v>-0.03294285385847517</v>
+        <v>-0.07988404356046035</v>
       </c>
       <c r="D58">
-        <v>0.1683790238011154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1940279589296143</v>
+      </c>
+      <c r="E58">
+        <v>-0.1484292988865254</v>
+      </c>
+      <c r="F58">
+        <v>-0.155006823655102</v>
+      </c>
+      <c r="G58">
+        <v>0.1246643589840714</v>
+      </c>
+      <c r="H58">
+        <v>0.1430905895200695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2097979361599149</v>
+        <v>0.2621229871760546</v>
       </c>
       <c r="C59">
-        <v>0.1173947015542896</v>
+        <v>0.05380985993040223</v>
       </c>
       <c r="D59">
-        <v>0.04347681375471484</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04468200053985658</v>
+      </c>
+      <c r="E59">
+        <v>-0.0009440700186040817</v>
+      </c>
+      <c r="F59">
+        <v>-0.02362150566743496</v>
+      </c>
+      <c r="G59">
+        <v>0.04298292559173657</v>
+      </c>
+      <c r="H59">
+        <v>-0.02043649640548438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1654585247360862</v>
+        <v>0.1513160527545474</v>
       </c>
       <c r="C60">
-        <v>-0.1148639759371506</v>
+        <v>-0.1654075249369323</v>
       </c>
       <c r="D60">
-        <v>0.1220694887783866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02096834097616906</v>
+      </c>
+      <c r="E60">
+        <v>-0.1160123229246382</v>
+      </c>
+      <c r="F60">
+        <v>0.1758856775647411</v>
+      </c>
+      <c r="G60">
+        <v>-0.1786632633356885</v>
+      </c>
+      <c r="H60">
+        <v>-0.2097076619964845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01881850915757328</v>
+        <v>0.01328988801198318</v>
       </c>
       <c r="C61">
-        <v>-0.05837598242852782</v>
+        <v>-0.08130339991815783</v>
       </c>
       <c r="D61">
-        <v>0.06820388358110061</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03241704361619809</v>
+      </c>
+      <c r="E61">
+        <v>-0.07977442890149089</v>
+      </c>
+      <c r="F61">
+        <v>-0.00314616242882251</v>
+      </c>
+      <c r="G61">
+        <v>-0.002864141249446818</v>
+      </c>
+      <c r="H61">
+        <v>-0.007006879379097275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-9.001762612211612e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0001652333496105589</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0001301757412191369</v>
+      </c>
+      <c r="E62">
+        <v>0.0002316113847308027</v>
+      </c>
+      <c r="F62">
+        <v>-0.0004609236303620053</v>
+      </c>
+      <c r="G62">
+        <v>0.0003221421304989996</v>
+      </c>
+      <c r="H62">
+        <v>0.001191109945567203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.008905236993151378</v>
+        <v>0.01602596198685168</v>
       </c>
       <c r="C63">
-        <v>-0.03054070751945467</v>
+        <v>-0.04964844873775623</v>
       </c>
       <c r="D63">
-        <v>0.06259252927786428</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0195506944082879</v>
+      </c>
+      <c r="E63">
+        <v>-0.09528427023157869</v>
+      </c>
+      <c r="F63">
+        <v>-0.02812230958217269</v>
+      </c>
+      <c r="G63">
+        <v>-0.00402198286291858</v>
+      </c>
+      <c r="H63">
+        <v>-0.003523422452469781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04207295855729348</v>
+        <v>0.01432778317082854</v>
       </c>
       <c r="C64">
-        <v>-0.09703217683808905</v>
+        <v>-0.1027383799421495</v>
       </c>
       <c r="D64">
-        <v>0.01479399985858707</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.001586152563496749</v>
+      </c>
+      <c r="E64">
+        <v>-0.03098678765962661</v>
+      </c>
+      <c r="F64">
+        <v>-0.03016150851400043</v>
+      </c>
+      <c r="G64">
+        <v>-0.03198886706014156</v>
+      </c>
+      <c r="H64">
+        <v>0.01338879533370089</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02630297664470445</v>
+        <v>0.02743217363297339</v>
       </c>
       <c r="C65">
-        <v>-0.0203845007735383</v>
+        <v>-0.04969849242467721</v>
       </c>
       <c r="D65">
-        <v>0.08518625263334405</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07704976218682891</v>
+      </c>
+      <c r="E65">
+        <v>-0.0970492312208053</v>
+      </c>
+      <c r="F65">
+        <v>0.0009082784332990166</v>
+      </c>
+      <c r="G65">
+        <v>-0.06531312431915078</v>
+      </c>
+      <c r="H65">
+        <v>-0.02193327233919222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02084897654542144</v>
+        <v>0.008726364921823212</v>
       </c>
       <c r="C66">
-        <v>-0.0760746729046532</v>
+        <v>-0.1146999044095017</v>
       </c>
       <c r="D66">
-        <v>0.1176279627423146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07439306274305885</v>
+      </c>
+      <c r="E66">
+        <v>-0.1171843476350675</v>
+      </c>
+      <c r="F66">
+        <v>-0.008374863697535278</v>
+      </c>
+      <c r="G66">
+        <v>0.01296621449686027</v>
+      </c>
+      <c r="H66">
+        <v>0.005189420243886717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01642529409995163</v>
+        <v>0.01675393496284954</v>
       </c>
       <c r="C67">
-        <v>-0.01765391595445355</v>
+        <v>-0.03572507930283804</v>
       </c>
       <c r="D67">
-        <v>0.0427598992436804</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03020268425628562</v>
+      </c>
+      <c r="E67">
+        <v>-0.05294172550280839</v>
+      </c>
+      <c r="F67">
+        <v>0.01181796255444313</v>
+      </c>
+      <c r="G67">
+        <v>-0.001936557052132599</v>
+      </c>
+      <c r="H67">
+        <v>0.03132679093069654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2239813324932395</v>
+        <v>0.2803441721471326</v>
       </c>
       <c r="C68">
-        <v>0.1310475727743023</v>
+        <v>0.06599354259802277</v>
       </c>
       <c r="D68">
-        <v>0.02572854285093195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03445950140115661</v>
+      </c>
+      <c r="E68">
+        <v>-0.02241445256636403</v>
+      </c>
+      <c r="F68">
+        <v>-0.03248829964210125</v>
+      </c>
+      <c r="G68">
+        <v>0.03603845734121699</v>
+      </c>
+      <c r="H68">
+        <v>0.02566099866400627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04669480719340382</v>
+        <v>0.01420725788071241</v>
       </c>
       <c r="C69">
-        <v>-0.1192882625106731</v>
+        <v>-0.1098667984153252</v>
       </c>
       <c r="D69">
-        <v>0.06215763537546364</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01274352176900653</v>
+      </c>
+      <c r="E69">
+        <v>-0.01413889563595099</v>
+      </c>
+      <c r="F69">
+        <v>0.005550674154636253</v>
+      </c>
+      <c r="G69">
+        <v>0.001780793475854755</v>
+      </c>
+      <c r="H69">
+        <v>-0.000366576958785071</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2373415593748035</v>
+        <v>0.2702889362076598</v>
       </c>
       <c r="C71">
-        <v>0.1509282421875881</v>
+        <v>0.08084163866664398</v>
       </c>
       <c r="D71">
-        <v>0.01542713079188367</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01330878649856427</v>
+      </c>
+      <c r="E71">
+        <v>0.0002412959509501171</v>
+      </c>
+      <c r="F71">
+        <v>-0.01460806229810924</v>
+      </c>
+      <c r="G71">
+        <v>0.03128932020150727</v>
+      </c>
+      <c r="H71">
+        <v>0.04156905425047078</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09730467581041077</v>
+        <v>0.06541381322571869</v>
       </c>
       <c r="C72">
-        <v>-0.08418608598362055</v>
+        <v>-0.1255616895190216</v>
       </c>
       <c r="D72">
-        <v>0.08612410827664278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02022128330577337</v>
+      </c>
+      <c r="E72">
+        <v>-0.0848381519546714</v>
+      </c>
+      <c r="F72">
+        <v>0.01318342748685811</v>
+      </c>
+      <c r="G72">
+        <v>-0.04331379606748046</v>
+      </c>
+      <c r="H72">
+        <v>-0.02150871713483314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.169656870764062</v>
+        <v>0.1571535251906353</v>
       </c>
       <c r="C73">
-        <v>-0.09203057709572551</v>
+        <v>-0.1732480500326283</v>
       </c>
       <c r="D73">
-        <v>0.1755575102055163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01256404974196263</v>
+      </c>
+      <c r="E73">
+        <v>-0.2543236389648143</v>
+      </c>
+      <c r="F73">
+        <v>0.3059506472550424</v>
+      </c>
+      <c r="G73">
+        <v>-0.3267352602472806</v>
+      </c>
+      <c r="H73">
+        <v>-0.2724411970491186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09326819667269962</v>
+        <v>0.04972484335883584</v>
       </c>
       <c r="C74">
-        <v>-0.1249381536044399</v>
+        <v>-0.1401267548577511</v>
       </c>
       <c r="D74">
-        <v>-0.05513369004746579</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04341667169627036</v>
+      </c>
+      <c r="E74">
+        <v>0.05045893050367058</v>
+      </c>
+      <c r="F74">
+        <v>-0.02911008156563303</v>
+      </c>
+      <c r="G74">
+        <v>0.007201065791796934</v>
+      </c>
+      <c r="H74">
+        <v>0.01442746567028624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2024091462669016</v>
+        <v>0.09662584342967113</v>
       </c>
       <c r="C75">
-        <v>-0.2208232954943785</v>
+        <v>-0.2569419456001272</v>
       </c>
       <c r="D75">
-        <v>-0.02699177988506474</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.08608114179472803</v>
+      </c>
+      <c r="E75">
+        <v>0.1406448170788903</v>
+      </c>
+      <c r="F75">
+        <v>0.07377619821767571</v>
+      </c>
+      <c r="G75">
+        <v>0.08642177369510812</v>
+      </c>
+      <c r="H75">
+        <v>0.1494910404006706</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1227316865685816</v>
+        <v>0.0600956675029694</v>
       </c>
       <c r="C76">
-        <v>-0.1533959331336497</v>
+        <v>-0.1785290801330743</v>
       </c>
       <c r="D76">
-        <v>0.009209889197342344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04207259296928934</v>
+      </c>
+      <c r="E76">
+        <v>0.05413618576917753</v>
+      </c>
+      <c r="F76">
+        <v>0.02645021588586553</v>
+      </c>
+      <c r="G76">
+        <v>0.04274198649225583</v>
+      </c>
+      <c r="H76">
+        <v>0.02485720964965781</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.005508632055004975</v>
+        <v>0.0002640146107015998</v>
       </c>
       <c r="C77">
-        <v>-0.08590963395246209</v>
+        <v>-0.1267401365897797</v>
       </c>
       <c r="D77">
-        <v>0.22396707476815</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.7549436287314015</v>
+      </c>
+      <c r="E77">
+        <v>0.5577156764016121</v>
+      </c>
+      <c r="F77">
+        <v>0.1299273849588491</v>
+      </c>
+      <c r="G77">
+        <v>-0.1773078651933819</v>
+      </c>
+      <c r="H77">
+        <v>-0.05294378129202117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03093596933392393</v>
+        <v>0.02275329820195996</v>
       </c>
       <c r="C78">
-        <v>-0.08298553367097324</v>
+        <v>-0.1000427409030559</v>
       </c>
       <c r="D78">
-        <v>0.1328852301311525</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.04403364180156856</v>
+      </c>
+      <c r="E78">
+        <v>-0.1030983428671444</v>
+      </c>
+      <c r="F78">
+        <v>-0.04898051620555299</v>
+      </c>
+      <c r="G78">
+        <v>0.09680280555983342</v>
+      </c>
+      <c r="H78">
+        <v>-0.001106737998366121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1063475823861188</v>
+        <v>0.05291635007399209</v>
       </c>
       <c r="C79">
-        <v>-0.2306771592182751</v>
+        <v>-0.2212838738790069</v>
       </c>
       <c r="D79">
-        <v>-0.68078662345038</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1736631010007658</v>
+      </c>
+      <c r="E79">
+        <v>0.2076231287735564</v>
+      </c>
+      <c r="F79">
+        <v>-0.7503198353547371</v>
+      </c>
+      <c r="G79">
+        <v>-0.4190578179247316</v>
+      </c>
+      <c r="H79">
+        <v>-0.1699808576105239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00683292868491068</v>
+        <v>0.009797979383485355</v>
       </c>
       <c r="C80">
-        <v>-0.04269041507519988</v>
+        <v>-0.04496323258564188</v>
       </c>
       <c r="D80">
-        <v>0.02494140551247353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.002758614366961943</v>
+      </c>
+      <c r="E80">
+        <v>-0.06244045171973563</v>
+      </c>
+      <c r="F80">
+        <v>0.00363631424390154</v>
+      </c>
+      <c r="G80">
+        <v>0.02863545897450294</v>
+      </c>
+      <c r="H80">
+        <v>-0.06805450748769898</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09241120918104873</v>
+        <v>0.03119319352028627</v>
       </c>
       <c r="C81">
-        <v>-0.1423653174169921</v>
+        <v>-0.1566743101512397</v>
       </c>
       <c r="D81">
-        <v>-0.0678685173127223</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05588183350210155</v>
+      </c>
+      <c r="E81">
+        <v>0.07808639023709039</v>
+      </c>
+      <c r="F81">
+        <v>-0.04569645066948628</v>
+      </c>
+      <c r="G81">
+        <v>0.0698741710686098</v>
+      </c>
+      <c r="H81">
+        <v>0.02792880013149033</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1915153074020524</v>
+        <v>0.07698044687198134</v>
       </c>
       <c r="C82">
-        <v>-0.3062240753009305</v>
+        <v>-0.2853982515152987</v>
       </c>
       <c r="D82">
-        <v>-0.03847926233189407</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1599430527533402</v>
+      </c>
+      <c r="E82">
+        <v>0.1661157781667975</v>
+      </c>
+      <c r="F82">
+        <v>0.1397743110336835</v>
+      </c>
+      <c r="G82">
+        <v>0.1597638210699057</v>
+      </c>
+      <c r="H82">
+        <v>0.06274150501944473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0126457711875326</v>
+        <v>-0.007049303810732249</v>
       </c>
       <c r="C83">
-        <v>-0.04737105715580697</v>
+        <v>-0.01471332246552882</v>
       </c>
       <c r="D83">
-        <v>0.001467171987021026</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0424209246512236</v>
+      </c>
+      <c r="E83">
+        <v>0.1039804797012968</v>
+      </c>
+      <c r="F83">
+        <v>-0.1137906739177735</v>
+      </c>
+      <c r="G83">
+        <v>0.5678921128705549</v>
+      </c>
+      <c r="H83">
+        <v>-0.7353432910830124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001018180000407588</v>
+        <v>-0.00287109375837934</v>
       </c>
       <c r="C84">
-        <v>-0.004117364628920727</v>
+        <v>-0.01982157977565424</v>
       </c>
       <c r="D84">
-        <v>0.01027756045009115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0356195593842647</v>
+      </c>
+      <c r="E84">
+        <v>-0.03962837834468439</v>
+      </c>
+      <c r="F84">
+        <v>-0.04124186829232112</v>
+      </c>
+      <c r="G84">
+        <v>0.02809295805356441</v>
+      </c>
+      <c r="H84">
+        <v>0.05983929730448753</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1207098351225035</v>
+        <v>0.05447399366167221</v>
       </c>
       <c r="C85">
-        <v>-0.1613217397421494</v>
+        <v>-0.176918701614162</v>
       </c>
       <c r="D85">
-        <v>-0.09128433727555973</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1163295236521973</v>
+      </c>
+      <c r="E85">
+        <v>0.06602290198223737</v>
+      </c>
+      <c r="F85">
+        <v>-0.03465065221047394</v>
+      </c>
+      <c r="G85">
+        <v>0.01224839027700775</v>
+      </c>
+      <c r="H85">
+        <v>0.03907898920213244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02620963706828461</v>
+        <v>0.01681950906546302</v>
       </c>
       <c r="C86">
-        <v>-0.01174354825698226</v>
+        <v>-0.043157758794077</v>
       </c>
       <c r="D86">
-        <v>0.07696324517452076</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08384226344730696</v>
+      </c>
+      <c r="E86">
+        <v>-0.02878014800879643</v>
+      </c>
+      <c r="F86">
+        <v>-0.05347431638812306</v>
+      </c>
+      <c r="G86">
+        <v>0.0240233028995356</v>
+      </c>
+      <c r="H86">
+        <v>0.06145628500084791</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02295639615563854</v>
+        <v>0.01149480065715903</v>
       </c>
       <c r="C87">
-        <v>-0.04205894740989059</v>
+        <v>-0.0694600963773427</v>
       </c>
       <c r="D87">
-        <v>0.1116605625093049</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09348169569844897</v>
+      </c>
+      <c r="E87">
+        <v>-0.09028391158450308</v>
+      </c>
+      <c r="F87">
+        <v>-0.06118391547607635</v>
+      </c>
+      <c r="G87">
+        <v>0.06579192368652052</v>
+      </c>
+      <c r="H87">
+        <v>0.03521107447637463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04266624202163385</v>
+        <v>0.03442683675990046</v>
       </c>
       <c r="C88">
-        <v>-0.05553646629723897</v>
+        <v>-0.07173121236941112</v>
       </c>
       <c r="D88">
-        <v>-0.002560329844151463</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.001660633712122812</v>
+      </c>
+      <c r="E88">
+        <v>-0.02935931030208963</v>
+      </c>
+      <c r="F88">
+        <v>-0.01569128429043467</v>
+      </c>
+      <c r="G88">
+        <v>-0.01374868849955693</v>
+      </c>
+      <c r="H88">
+        <v>0.001034269790958278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3582693907985013</v>
+        <v>0.3999748706005144</v>
       </c>
       <c r="C89">
-        <v>0.2766545013552537</v>
+        <v>0.1601724479728036</v>
       </c>
       <c r="D89">
-        <v>0.001008880514708579</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04484895507215096</v>
+      </c>
+      <c r="E89">
+        <v>0.007950342448313868</v>
+      </c>
+      <c r="F89">
+        <v>-0.0626799921144721</v>
+      </c>
+      <c r="G89">
+        <v>0.09375373483048684</v>
+      </c>
+      <c r="H89">
+        <v>-0.08456522620812006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2831529499313841</v>
+        <v>0.3222542612402717</v>
       </c>
       <c r="C90">
-        <v>0.1986309397589093</v>
+        <v>0.09950606559885505</v>
       </c>
       <c r="D90">
-        <v>0.06200460541785918</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03448806634789643</v>
+      </c>
+      <c r="E90">
+        <v>-0.02269505368322358</v>
+      </c>
+      <c r="F90">
+        <v>0.005864182043689049</v>
+      </c>
+      <c r="G90">
+        <v>0.04221729515799934</v>
+      </c>
+      <c r="H90">
+        <v>0.01575187178708063</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1280892686466945</v>
+        <v>0.06311168620976521</v>
       </c>
       <c r="C91">
-        <v>-0.2026632307432726</v>
+        <v>-0.1982341601497949</v>
       </c>
       <c r="D91">
-        <v>-0.09859163844100298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0780982318137001</v>
+      </c>
+      <c r="E91">
+        <v>0.1273163842407309</v>
+      </c>
+      <c r="F91">
+        <v>-0.04442752750292998</v>
+      </c>
+      <c r="G91">
+        <v>0.03591222882919837</v>
+      </c>
+      <c r="H91">
+        <v>0.005690738216627586</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2726357853964557</v>
+        <v>0.337299319235319</v>
       </c>
       <c r="C92">
-        <v>0.2335320536944205</v>
+        <v>0.1462606708982391</v>
       </c>
       <c r="D92">
-        <v>-0.03658814512145306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04710978311282828</v>
+      </c>
+      <c r="E92">
+        <v>0.04570569759679474</v>
+      </c>
+      <c r="F92">
+        <v>-0.05629257752578767</v>
+      </c>
+      <c r="G92">
+        <v>-0.01681483347060421</v>
+      </c>
+      <c r="H92">
+        <v>0.1308008267316557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3035782916008555</v>
+        <v>0.330696399424419</v>
       </c>
       <c r="C93">
-        <v>0.2118549812490897</v>
+        <v>0.1201323437634811</v>
       </c>
       <c r="D93">
-        <v>-0.03230532312477129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02732092926604432</v>
+      </c>
+      <c r="E93">
+        <v>0.01011842721103159</v>
+      </c>
+      <c r="F93">
+        <v>-0.01176253685260721</v>
+      </c>
+      <c r="G93">
+        <v>-0.02670040519407874</v>
+      </c>
+      <c r="H93">
+        <v>0.03830614950997416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2316806347330712</v>
+        <v>0.1177662702268094</v>
       </c>
       <c r="C94">
-        <v>-0.2877951024037423</v>
+        <v>-0.3076558046716066</v>
       </c>
       <c r="D94">
-        <v>-0.09933544663490913</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.2563079080513724</v>
+      </c>
+      <c r="E94">
+        <v>0.2246244060394272</v>
+      </c>
+      <c r="F94">
+        <v>0.1882106598879825</v>
+      </c>
+      <c r="G94">
+        <v>0.2173498591665501</v>
+      </c>
+      <c r="H94">
+        <v>0.1657710216942547</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002267899770199567</v>
+        <v>0.01384210367177254</v>
       </c>
       <c r="C95">
-        <v>-0.06336357069963257</v>
+        <v>-0.08898604607629694</v>
       </c>
       <c r="D95">
-        <v>0.09512105906974108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1365021970354497</v>
+      </c>
+      <c r="E95">
+        <v>0.01402025183023065</v>
+      </c>
+      <c r="F95">
+        <v>0.05819399792066348</v>
+      </c>
+      <c r="G95">
+        <v>-0.05119610726925959</v>
+      </c>
+      <c r="H95">
+        <v>-0.02840208829405988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002162985026183584</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001301055446948417</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.001176743354253035</v>
+      </c>
+      <c r="E97">
+        <v>-0.00418101265771853</v>
+      </c>
+      <c r="F97">
+        <v>-9.748503280259451e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.001209759309288632</v>
+      </c>
+      <c r="H97">
+        <v>0.006054397406942727</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1408290417582127</v>
+        <v>0.1334823707495616</v>
       </c>
       <c r="C98">
-        <v>-0.1049289159386722</v>
+        <v>-0.1672482476705218</v>
       </c>
       <c r="D98">
-        <v>0.127156623251944</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.02231667198490374</v>
+      </c>
+      <c r="E98">
+        <v>-0.1662953107188357</v>
+      </c>
+      <c r="F98">
+        <v>0.2530516560468064</v>
+      </c>
+      <c r="G98">
+        <v>-0.2461229835699896</v>
+      </c>
+      <c r="H98">
+        <v>-0.218202013802446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0023333226707513</v>
+        <v>0.002689914519421827</v>
       </c>
       <c r="C101">
-        <v>-0.02111023075670311</v>
+        <v>-0.04190213651919032</v>
       </c>
       <c r="D101">
-        <v>0.06039494813494224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04674462385371999</v>
+      </c>
+      <c r="E101">
+        <v>-0.1200587409079803</v>
+      </c>
+      <c r="F101">
+        <v>-0.04805974010870101</v>
+      </c>
+      <c r="G101">
+        <v>0.01139132421917753</v>
+      </c>
+      <c r="H101">
+        <v>-0.05025282518502074</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.07920505569389943</v>
+        <v>0.01898432430699899</v>
       </c>
       <c r="C102">
-        <v>-0.162113700016364</v>
+        <v>-0.1289059337196406</v>
       </c>
       <c r="D102">
-        <v>0.007981120833869298</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06756445888991573</v>
+      </c>
+      <c r="E102">
+        <v>0.08390947965291246</v>
+      </c>
+      <c r="F102">
+        <v>0.08058816869893433</v>
+      </c>
+      <c r="G102">
+        <v>0.05645618601193809</v>
+      </c>
+      <c r="H102">
+        <v>0.01078889567563025</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
